--- a/ReadExcel/ReadURL.xlsx
+++ b/ReadExcel/ReadURL.xlsx
@@ -672,9 +672,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -683,57 +681,57 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="3" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickBot="1">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15.75" thickBot="1">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1">
       <c r="A5" s="3" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickBot="1">
       <c r="A8" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" thickBot="1">
       <c r="A10" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" t="s">
         <v>64</v>
@@ -741,77 +739,77 @@
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.75" thickBot="1">
       <c r="A13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15.75" thickBot="1">
       <c r="A19" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15.75" thickBot="1">
       <c r="A20" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1">
       <c r="A21" s="3" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1">
       <c r="A22" s="3" t="s">
-        <v>21</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15.75" thickBot="1">
       <c r="A23" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15.75" thickBot="1">
       <c r="A24" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15.75" thickBot="1">
       <c r="A25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15.75" thickBot="1">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1">
@@ -961,8 +959,8 @@
     <hyperlink ref="A46" r:id="rId3" display="https://www.u-buy.com.cn/"/>
     <hyperlink ref="A42" r:id="rId4" display="https://www.ubuy.com.my/"/>
     <hyperlink ref="A44" r:id="rId5" display="https://www.ubuy.co.id/"/>
-    <hyperlink ref="A25" r:id="rId6"/>
-    <hyperlink ref="A26" r:id="rId7"/>
+    <hyperlink ref="A26" r:id="rId6"/>
+    <hyperlink ref="A1" r:id="rId7"/>
     <hyperlink ref="A27" r:id="rId8"/>
     <hyperlink ref="A28" r:id="rId9"/>
     <hyperlink ref="A29" r:id="rId10"/>
@@ -978,35 +976,35 @@
     <hyperlink ref="A39" r:id="rId20"/>
     <hyperlink ref="A40" r:id="rId21"/>
     <hyperlink ref="A41" r:id="rId22"/>
-    <hyperlink ref="A4" r:id="rId23"/>
-    <hyperlink ref="A5" r:id="rId24" display="https://www.u-buy.com.tw/"/>
-    <hyperlink ref="A6" r:id="rId25"/>
-    <hyperlink ref="A1" r:id="rId26" display="https://www.ubuy.hk/"/>
+    <hyperlink ref="A5" r:id="rId23"/>
+    <hyperlink ref="A6" r:id="rId24" display="https://www.u-buy.com.tw/"/>
+    <hyperlink ref="A7" r:id="rId25"/>
+    <hyperlink ref="A2" r:id="rId26" display="https://www.ubuy.hk/"/>
     <hyperlink ref="A50" r:id="rId27" display="https://www.ubuy.co.in/"/>
-    <hyperlink ref="A7" r:id="rId28"/>
+    <hyperlink ref="A8" r:id="rId28"/>
     <hyperlink ref="A47" r:id="rId29"/>
-    <hyperlink ref="A8" r:id="rId30"/>
+    <hyperlink ref="A9" r:id="rId30"/>
     <hyperlink ref="A53" r:id="rId31"/>
     <hyperlink ref="A48" r:id="rId32"/>
     <hyperlink ref="A51" r:id="rId33"/>
-    <hyperlink ref="A9" r:id="rId34"/>
-    <hyperlink ref="A10" r:id="rId35"/>
-    <hyperlink ref="A11" r:id="rId36"/>
-    <hyperlink ref="A12" r:id="rId37"/>
-    <hyperlink ref="A13" r:id="rId38" display="https://www.ubuy.co.it/"/>
-    <hyperlink ref="A14" r:id="rId39"/>
-    <hyperlink ref="A15" r:id="rId40"/>
-    <hyperlink ref="A16" r:id="rId41"/>
-    <hyperlink ref="A17" r:id="rId42"/>
-    <hyperlink ref="A18" r:id="rId43"/>
-    <hyperlink ref="A19" r:id="rId44"/>
+    <hyperlink ref="A10" r:id="rId34"/>
+    <hyperlink ref="A11" r:id="rId35"/>
+    <hyperlink ref="A12" r:id="rId36"/>
+    <hyperlink ref="A13" r:id="rId37"/>
+    <hyperlink ref="A14" r:id="rId38" display="https://www.ubuy.co.it/"/>
+    <hyperlink ref="A15" r:id="rId39"/>
+    <hyperlink ref="A16" r:id="rId40"/>
+    <hyperlink ref="A17" r:id="rId41"/>
+    <hyperlink ref="A18" r:id="rId42"/>
+    <hyperlink ref="A19" r:id="rId43"/>
+    <hyperlink ref="A20" r:id="rId44"/>
     <hyperlink ref="A54" r:id="rId45"/>
-    <hyperlink ref="A20" r:id="rId46"/>
-    <hyperlink ref="A21" r:id="rId47"/>
-    <hyperlink ref="A22" r:id="rId48"/>
-    <hyperlink ref="A23" r:id="rId49"/>
-    <hyperlink ref="A24" r:id="rId50"/>
-    <hyperlink ref="A3" r:id="rId51"/>
+    <hyperlink ref="A21" r:id="rId46"/>
+    <hyperlink ref="A22" r:id="rId47"/>
+    <hyperlink ref="A23" r:id="rId48"/>
+    <hyperlink ref="A24" r:id="rId49"/>
+    <hyperlink ref="A25" r:id="rId50"/>
+    <hyperlink ref="A4" r:id="rId51"/>
     <hyperlink ref="A52" r:id="rId52"/>
     <hyperlink ref="A49" r:id="rId53"/>
   </hyperlinks>

--- a/ReadExcel/ReadURL.xlsx
+++ b/ReadExcel/ReadURL.xlsx
@@ -672,7 +672,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -889,76 +891,76 @@
     </row>
     <row r="42" spans="1:1" ht="15.75" thickBot="1">
       <c r="A42" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A43" s="3" t="s">
-        <v>45</v>
+      <c r="A43" s="10" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15.75" thickBot="1">
-      <c r="A44" s="10" t="s">
-        <v>50</v>
+      <c r="A44" s="9" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15.75" thickBot="1">
       <c r="A45" s="9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A46" s="9" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A47" s="9" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A48" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
       <c r="A49" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A51" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A50" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A51" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
     <row r="52" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A52" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" s="2" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1">
       <c r="A53" s="3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15.75" thickBot="1">
       <c r="A54" s="3" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A45" r:id="rId1" display="https://www.u-buy.vn/"/>
-    <hyperlink ref="A43" r:id="rId2" display="https://www.ubuy.co.th/"/>
-    <hyperlink ref="A46" r:id="rId3" display="https://www.u-buy.com.cn/"/>
-    <hyperlink ref="A42" r:id="rId4" display="https://www.ubuy.com.my/"/>
-    <hyperlink ref="A44" r:id="rId5" display="https://www.ubuy.co.id/"/>
+    <hyperlink ref="A44" r:id="rId1" display="https://www.u-buy.vn/"/>
+    <hyperlink ref="A42" r:id="rId2" display="https://www.ubuy.co.th/"/>
+    <hyperlink ref="A45" r:id="rId3" display="https://www.u-buy.com.cn/"/>
+    <hyperlink ref="A54" r:id="rId4" display="https://www.ubuy.com.my/"/>
+    <hyperlink ref="A43" r:id="rId5" display="https://www.ubuy.co.id/"/>
     <hyperlink ref="A26" r:id="rId6"/>
     <hyperlink ref="A1" r:id="rId7"/>
     <hyperlink ref="A27" r:id="rId8"/>
@@ -980,13 +982,13 @@
     <hyperlink ref="A6" r:id="rId24" display="https://www.u-buy.com.tw/"/>
     <hyperlink ref="A7" r:id="rId25"/>
     <hyperlink ref="A2" r:id="rId26" display="https://www.ubuy.hk/"/>
-    <hyperlink ref="A50" r:id="rId27" display="https://www.ubuy.co.in/"/>
+    <hyperlink ref="A49" r:id="rId27" display="https://www.ubuy.co.in/"/>
     <hyperlink ref="A8" r:id="rId28"/>
-    <hyperlink ref="A47" r:id="rId29"/>
+    <hyperlink ref="A46" r:id="rId29"/>
     <hyperlink ref="A9" r:id="rId30"/>
-    <hyperlink ref="A53" r:id="rId31"/>
-    <hyperlink ref="A48" r:id="rId32"/>
-    <hyperlink ref="A51" r:id="rId33"/>
+    <hyperlink ref="A52" r:id="rId31"/>
+    <hyperlink ref="A47" r:id="rId32"/>
+    <hyperlink ref="A50" r:id="rId33"/>
     <hyperlink ref="A10" r:id="rId34"/>
     <hyperlink ref="A11" r:id="rId35"/>
     <hyperlink ref="A12" r:id="rId36"/>
@@ -998,15 +1000,15 @@
     <hyperlink ref="A18" r:id="rId42"/>
     <hyperlink ref="A19" r:id="rId43"/>
     <hyperlink ref="A20" r:id="rId44"/>
-    <hyperlink ref="A54" r:id="rId45"/>
+    <hyperlink ref="A53" r:id="rId45"/>
     <hyperlink ref="A21" r:id="rId46"/>
     <hyperlink ref="A22" r:id="rId47"/>
     <hyperlink ref="A23" r:id="rId48"/>
     <hyperlink ref="A24" r:id="rId49"/>
     <hyperlink ref="A25" r:id="rId50"/>
     <hyperlink ref="A4" r:id="rId51"/>
-    <hyperlink ref="A52" r:id="rId52"/>
-    <hyperlink ref="A49" r:id="rId53"/>
+    <hyperlink ref="A51" r:id="rId52"/>
+    <hyperlink ref="A48" r:id="rId53"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId54"/>

--- a/ReadExcel/ReadURL.xlsx
+++ b/ReadExcel/ReadURL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="14295" windowHeight="4635" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="65">
   <si>
     <t>https://www.ubuy.mv/</t>
   </si>
@@ -672,8 +672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1355,17 +1355,341 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD32"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A1" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A5" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A7" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A14" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A15" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A26" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A27" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A28" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A29" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A30" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A31" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A33" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A34" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A35" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A36" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A37" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A38" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A41" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A42" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A43" s="10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A44" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A45" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A46" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A47" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A48" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A49" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A52" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A53" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" ht="15.75" thickBot="1">
+      <c r="A54" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A44" r:id="rId1" display="https://www.u-buy.vn/"/>
+    <hyperlink ref="A1" r:id="rId2" display="https://www.ubuy.co.th/"/>
+    <hyperlink ref="A45" r:id="rId3" display="https://www.u-buy.com.cn/"/>
+    <hyperlink ref="A54" r:id="rId4" display="https://www.ubuy.com.my/"/>
+    <hyperlink ref="A43" r:id="rId5" display="https://www.ubuy.co.id/"/>
+    <hyperlink ref="A27" r:id="rId6"/>
+    <hyperlink ref="A2" r:id="rId7"/>
+    <hyperlink ref="A28" r:id="rId8"/>
+    <hyperlink ref="A29" r:id="rId9"/>
+    <hyperlink ref="A30" r:id="rId10"/>
+    <hyperlink ref="A31" r:id="rId11"/>
+    <hyperlink ref="A32" r:id="rId12"/>
+    <hyperlink ref="A33" r:id="rId13"/>
+    <hyperlink ref="A34" r:id="rId14"/>
+    <hyperlink ref="A35" r:id="rId15"/>
+    <hyperlink ref="A36" r:id="rId16"/>
+    <hyperlink ref="A37" r:id="rId17"/>
+    <hyperlink ref="A38" r:id="rId18"/>
+    <hyperlink ref="A39" r:id="rId19"/>
+    <hyperlink ref="A40" r:id="rId20"/>
+    <hyperlink ref="A41" r:id="rId21"/>
+    <hyperlink ref="A42" r:id="rId22"/>
+    <hyperlink ref="A6" r:id="rId23"/>
+    <hyperlink ref="A7" r:id="rId24" display="https://www.u-buy.com.tw/"/>
+    <hyperlink ref="A8" r:id="rId25"/>
+    <hyperlink ref="A3" r:id="rId26" display="https://www.ubuy.hk/"/>
+    <hyperlink ref="A49" r:id="rId27" display="https://www.ubuy.co.in/"/>
+    <hyperlink ref="A9" r:id="rId28"/>
+    <hyperlink ref="A46" r:id="rId29"/>
+    <hyperlink ref="A10" r:id="rId30"/>
+    <hyperlink ref="A52" r:id="rId31"/>
+    <hyperlink ref="A47" r:id="rId32"/>
+    <hyperlink ref="A50" r:id="rId33"/>
+    <hyperlink ref="A11" r:id="rId34"/>
+    <hyperlink ref="A12" r:id="rId35"/>
+    <hyperlink ref="A13" r:id="rId36"/>
+    <hyperlink ref="A14" r:id="rId37"/>
+    <hyperlink ref="A15" r:id="rId38" display="https://www.ubuy.co.it/"/>
+    <hyperlink ref="A16" r:id="rId39"/>
+    <hyperlink ref="A17" r:id="rId40"/>
+    <hyperlink ref="A18" r:id="rId41"/>
+    <hyperlink ref="A19" r:id="rId42"/>
+    <hyperlink ref="A20" r:id="rId43"/>
+    <hyperlink ref="A21" r:id="rId44"/>
+    <hyperlink ref="A53" r:id="rId45"/>
+    <hyperlink ref="A22" r:id="rId46"/>
+    <hyperlink ref="A23" r:id="rId47"/>
+    <hyperlink ref="A24" r:id="rId48"/>
+    <hyperlink ref="A25" r:id="rId49"/>
+    <hyperlink ref="A26" r:id="rId50"/>
+    <hyperlink ref="A5" r:id="rId51"/>
+    <hyperlink ref="A51" r:id="rId52"/>
+    <hyperlink ref="A48" r:id="rId53"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>